--- a/biology/Zoologie/Cheracebus_torquatus/Cheracebus_torquatus.xlsx
+++ b/biology/Zoologie/Cheracebus_torquatus/Cheracebus_torquatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicèbe à fraise, Titi à collier
-Cheracebus torquatus (syn. Callicebus torquatus), le Callicèbe à fraise, Titi à collier[4] ou encore Titi à fraise, est une espèce de primate de la famille des Pitheciidae faisant partie des singes du Nouveau-Monde, originaire du Brésil.
+Cheracebus torquatus (syn. Callicebus torquatus), le Callicèbe à fraise, Titi à collier ou encore Titi à fraise, est une espèce de primate de la famille des Pitheciidae faisant partie des singes du Nouveau-Monde, originaire du Brésil.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le rencontre principalement dans l'État brésilien de l'Amazonas[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre principalement dans l'État brésilien de l'Amazonas.
 </t>
         </is>
       </c>
@@ -569,10 +585,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1807 par le naturaliste allemand Johann Centurius von Hoffmannsegg (1766-1849). Auparavant classée dans le genre Callicebus, scindé en trois à la suite des travaux de phylogénie publiés en 2016-2017[5]
-,[6], l'espèce a été recombinée dans un nouveau genre, Cheracebus.  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1807 par le naturaliste allemand Johann Centurius von Hoffmannsegg (1766-1849). Auparavant classée dans le genre Callicebus, scindé en trois à la suite des travaux de phylogénie publiés en 2016-2017
+ l'espèce a été recombinée dans un nouveau genre, Cheracebus.  
 </t>
         </is>
       </c>
@@ -601,7 +619,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Préoccupation mineure selon l'UICN. Il n'y a pas de grandes menaces connues pour cette espèce à l'heure actuelle.
 </t>
